--- a/natmiOut/OldD4/LR-pairs_lrc2p/Il23a-Il12rb1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Il23a-Il12rb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -86,9 +92,6 @@
   </si>
   <si>
     <t>Il12rb1</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>sCs</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.8953194878725</v>
+        <v>1.137812333333333</v>
       </c>
       <c r="H2">
-        <v>1.8953194878725</v>
+        <v>3.413437</v>
       </c>
       <c r="I2">
-        <v>0.5184204779385431</v>
+        <v>0.1671730353904037</v>
       </c>
       <c r="J2">
-        <v>0.5184204779385431</v>
+        <v>0.1671730353904037</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.805668590815336</v>
+        <v>0.087409</v>
       </c>
       <c r="N2">
-        <v>0.805668590815336</v>
+        <v>0.262227</v>
       </c>
       <c r="O2">
-        <v>0.4701543359170821</v>
+        <v>0.02334891860093474</v>
       </c>
       <c r="P2">
-        <v>0.4701543359170821</v>
+        <v>0.02419892681150506</v>
       </c>
       <c r="Q2">
-        <v>1.526999380939081</v>
+        <v>0.09945503824433334</v>
       </c>
       <c r="R2">
-        <v>1.526999380939081</v>
+        <v>0.8950953441989999</v>
       </c>
       <c r="S2">
-        <v>0.243737635531012</v>
+        <v>0.003903309595601718</v>
       </c>
       <c r="T2">
-        <v>0.243737635531012</v>
+        <v>0.004045408048269523</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.8953194878725</v>
+        <v>1.137812333333333</v>
       </c>
       <c r="H3">
-        <v>1.8953194878725</v>
+        <v>3.413437</v>
       </c>
       <c r="I3">
-        <v>0.5184204779385431</v>
+        <v>0.1671730353904037</v>
       </c>
       <c r="J3">
-        <v>0.5184204779385431</v>
+        <v>0.1671730353904037</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.514547448084933</v>
+        <v>0.98917</v>
       </c>
       <c r="N3">
-        <v>0.514547448084933</v>
+        <v>2.96751</v>
       </c>
       <c r="O3">
-        <v>0.3002682697452329</v>
+        <v>0.2642296538398405</v>
       </c>
       <c r="P3">
-        <v>0.3002682697452329</v>
+        <v>0.273848830602529</v>
       </c>
       <c r="Q3">
-        <v>0.975231805790437</v>
+        <v>1.125489825763333</v>
       </c>
       <c r="R3">
-        <v>0.975231805790437</v>
+        <v>10.12940843187</v>
       </c>
       <c r="S3">
-        <v>0.155665219911103</v>
+        <v>0.04417207327256176</v>
       </c>
       <c r="T3">
-        <v>0.155665219911103</v>
+        <v>0.04578014024993723</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,185 +649,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.8953194878725</v>
+        <v>1.137812333333333</v>
       </c>
       <c r="H4">
-        <v>1.8953194878725</v>
+        <v>3.413437</v>
       </c>
       <c r="I4">
-        <v>0.5184204779385431</v>
+        <v>0.1671730353904037</v>
       </c>
       <c r="J4">
-        <v>0.5184204779385431</v>
+        <v>0.1671730353904037</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.39340974154436</v>
+        <v>1.912991</v>
       </c>
       <c r="N4">
-        <v>0.39340974154436</v>
+        <v>5.738973000000001</v>
       </c>
       <c r="O4">
-        <v>0.2295773943376851</v>
+        <v>0.5110031134473653</v>
       </c>
       <c r="P4">
-        <v>0.2295773943376851</v>
+        <v>0.52960598107824</v>
       </c>
       <c r="Q4">
-        <v>0.745637149867909</v>
+        <v>2.176624753355667</v>
       </c>
       <c r="R4">
-        <v>0.745637149867909</v>
+        <v>19.589622780201</v>
       </c>
       <c r="S4">
-        <v>0.1190176224964281</v>
+        <v>0.08542594156894284</v>
       </c>
       <c r="T4">
-        <v>0.1190176224964281</v>
+        <v>0.08853583941776205</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.76063078517436</v>
+        <v>1.137812333333333</v>
       </c>
       <c r="H5">
-        <v>1.76063078517436</v>
+        <v>3.413437</v>
       </c>
       <c r="I5">
-        <v>0.481579522061457</v>
+        <v>0.1671730353904037</v>
       </c>
       <c r="J5">
-        <v>0.481579522061457</v>
+        <v>0.1671730353904037</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.805668590815336</v>
+        <v>0.359538</v>
       </c>
       <c r="N5">
-        <v>0.805668590815336</v>
+        <v>1.078614</v>
       </c>
       <c r="O5">
-        <v>0.4701543359170821</v>
+        <v>0.09604072230482986</v>
       </c>
       <c r="P5">
-        <v>0.4701543359170821</v>
+        <v>0.09953704707701616</v>
       </c>
       <c r="Q5">
-        <v>1.418484923637525</v>
+        <v>0.409086770702</v>
       </c>
       <c r="R5">
-        <v>1.418484923637525</v>
+        <v>3.681780936318</v>
       </c>
       <c r="S5">
-        <v>0.2264167003860701</v>
+        <v>0.01605541906878525</v>
       </c>
       <c r="T5">
-        <v>0.2264167003860701</v>
+        <v>0.0166399102936623</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.76063078517436</v>
+        <v>1.137812333333333</v>
       </c>
       <c r="H6">
-        <v>1.76063078517436</v>
+        <v>3.413437</v>
       </c>
       <c r="I6">
-        <v>0.481579522061457</v>
+        <v>0.1671730353904037</v>
       </c>
       <c r="J6">
-        <v>0.481579522061457</v>
+        <v>0.1671730353904037</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.514547448084933</v>
+        <v>0.3944915</v>
       </c>
       <c r="N6">
-        <v>0.514547448084933</v>
+        <v>0.788983</v>
       </c>
       <c r="O6">
-        <v>0.3002682697452329</v>
+        <v>0.1053775918070296</v>
       </c>
       <c r="P6">
-        <v>0.3002682697452329</v>
+        <v>0.07280921443070965</v>
       </c>
       <c r="Q6">
-        <v>0.9059280775312388</v>
+        <v>0.4488572940951667</v>
       </c>
       <c r="R6">
-        <v>0.9059280775312388</v>
+        <v>2.693143764571</v>
       </c>
       <c r="S6">
-        <v>0.1446030498341299</v>
+        <v>0.01761629188451206</v>
       </c>
       <c r="T6">
-        <v>0.1446030498341299</v>
+        <v>0.01217173738077251</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,929 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.318775333333333</v>
+      </c>
+      <c r="H7">
+        <v>6.956326</v>
+      </c>
+      <c r="I7">
+        <v>0.3406859808999507</v>
+      </c>
+      <c r="J7">
+        <v>0.3406859808999507</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.087409</v>
+      </c>
+      <c r="N7">
+        <v>0.262227</v>
+      </c>
+      <c r="O7">
+        <v>0.02334891860093474</v>
+      </c>
+      <c r="P7">
+        <v>0.02419892681150506</v>
+      </c>
+      <c r="Q7">
+        <v>0.2026818331113333</v>
+      </c>
+      <c r="R7">
+        <v>1.824136498002</v>
+      </c>
+      <c r="S7">
+        <v>0.007954649236512557</v>
+      </c>
+      <c r="T7">
+        <v>0.008244235117503718</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.318775333333333</v>
+      </c>
+      <c r="H8">
+        <v>6.956326</v>
+      </c>
+      <c r="I8">
+        <v>0.3406859808999507</v>
+      </c>
+      <c r="J8">
+        <v>0.3406859808999507</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.98917</v>
+      </c>
+      <c r="N8">
+        <v>2.96751</v>
+      </c>
+      <c r="O8">
+        <v>0.2642296538398405</v>
+      </c>
+      <c r="P8">
+        <v>0.273848830602529</v>
+      </c>
+      <c r="Q8">
+        <v>2.293662996473333</v>
+      </c>
+      <c r="R8">
+        <v>20.64296696826</v>
+      </c>
+      <c r="S8">
+        <v>0.09001933880128049</v>
+      </c>
+      <c r="T8">
+        <v>0.09329645747212703</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.318775333333333</v>
+      </c>
+      <c r="H9">
+        <v>6.956326</v>
+      </c>
+      <c r="I9">
+        <v>0.3406859808999507</v>
+      </c>
+      <c r="J9">
+        <v>0.3406859808999507</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.912991</v>
+      </c>
+      <c r="N9">
+        <v>5.738973000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.5110031134473653</v>
+      </c>
+      <c r="P9">
+        <v>0.52960598107824</v>
+      </c>
+      <c r="Q9">
+        <v>4.435796343688667</v>
+      </c>
+      <c r="R9">
+        <v>39.92216709319801</v>
+      </c>
+      <c r="S9">
+        <v>0.1740915969477444</v>
+      </c>
+      <c r="T9">
+        <v>0.1804293331541209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.76063078517436</v>
-      </c>
-      <c r="H7">
-        <v>1.76063078517436</v>
-      </c>
-      <c r="I7">
-        <v>0.481579522061457</v>
-      </c>
-      <c r="J7">
-        <v>0.481579522061457</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.39340974154436</v>
-      </c>
-      <c r="N7">
-        <v>0.39340974154436</v>
-      </c>
-      <c r="O7">
-        <v>0.2295773943376851</v>
-      </c>
-      <c r="P7">
-        <v>0.2295773943376851</v>
-      </c>
-      <c r="Q7">
-        <v>0.6926493021504885</v>
-      </c>
-      <c r="R7">
-        <v>0.6926493021504885</v>
-      </c>
-      <c r="S7">
-        <v>0.110559771841257</v>
-      </c>
-      <c r="T7">
-        <v>0.110559771841257</v>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2.318775333333333</v>
+      </c>
+      <c r="H10">
+        <v>6.956326</v>
+      </c>
+      <c r="I10">
+        <v>0.3406859808999507</v>
+      </c>
+      <c r="J10">
+        <v>0.3406859808999507</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.359538</v>
+      </c>
+      <c r="N10">
+        <v>1.078614</v>
+      </c>
+      <c r="O10">
+        <v>0.09604072230482986</v>
+      </c>
+      <c r="P10">
+        <v>0.09953704707701616</v>
+      </c>
+      <c r="Q10">
+        <v>0.833687845796</v>
+      </c>
+      <c r="R10">
+        <v>7.503190612164</v>
+      </c>
+      <c r="S10">
+        <v>0.03271972768476074</v>
+      </c>
+      <c r="T10">
+        <v>0.03391087651931782</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2.318775333333333</v>
+      </c>
+      <c r="H11">
+        <v>6.956326</v>
+      </c>
+      <c r="I11">
+        <v>0.3406859808999507</v>
+      </c>
+      <c r="J11">
+        <v>0.3406859808999507</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.3944915</v>
+      </c>
+      <c r="N11">
+        <v>0.788983</v>
+      </c>
+      <c r="O11">
+        <v>0.1053775918070296</v>
+      </c>
+      <c r="P11">
+        <v>0.07280921443070965</v>
+      </c>
+      <c r="Q11">
+        <v>0.9147371594096667</v>
+      </c>
+      <c r="R11">
+        <v>5.488422956458</v>
+      </c>
+      <c r="S11">
+        <v>0.03590066822965247</v>
+      </c>
+      <c r="T11">
+        <v>0.02480507863688116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>1.433754</v>
+      </c>
+      <c r="H12">
+        <v>4.301261999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.2106542539233618</v>
+      </c>
+      <c r="J12">
+        <v>0.2106542539233618</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.087409</v>
+      </c>
+      <c r="N12">
+        <v>0.262227</v>
+      </c>
+      <c r="O12">
+        <v>0.02334891860093474</v>
+      </c>
+      <c r="P12">
+        <v>0.02419892681150506</v>
+      </c>
+      <c r="Q12">
+        <v>0.125323003386</v>
+      </c>
+      <c r="R12">
+        <v>1.127907030474</v>
+      </c>
+      <c r="S12">
+        <v>0.004918549027797213</v>
+      </c>
+      <c r="T12">
+        <v>0.005097606873223634</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>1.433754</v>
+      </c>
+      <c r="H13">
+        <v>4.301261999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.2106542539233618</v>
+      </c>
+      <c r="J13">
+        <v>0.2106542539233618</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.98917</v>
+      </c>
+      <c r="N13">
+        <v>2.96751</v>
+      </c>
+      <c r="O13">
+        <v>0.2642296538398405</v>
+      </c>
+      <c r="P13">
+        <v>0.273848830602529</v>
+      </c>
+      <c r="Q13">
+        <v>1.41822644418</v>
+      </c>
+      <c r="R13">
+        <v>12.76403799762</v>
+      </c>
+      <c r="S13">
+        <v>0.05566110059405974</v>
+      </c>
+      <c r="T13">
+        <v>0.05768742109836084</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>1.433754</v>
+      </c>
+      <c r="H14">
+        <v>4.301261999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.2106542539233618</v>
+      </c>
+      <c r="J14">
+        <v>0.2106542539233618</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.912991</v>
+      </c>
+      <c r="N14">
+        <v>5.738973000000001</v>
+      </c>
+      <c r="O14">
+        <v>0.5110031134473653</v>
+      </c>
+      <c r="P14">
+        <v>0.52960598107824</v>
+      </c>
+      <c r="Q14">
+        <v>2.742758498214</v>
+      </c>
+      <c r="R14">
+        <v>24.684826483926</v>
+      </c>
+      <c r="S14">
+        <v>0.1076449796157697</v>
+      </c>
+      <c r="T14">
+        <v>0.1115637528173867</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>1.433754</v>
+      </c>
+      <c r="H15">
+        <v>4.301261999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.2106542539233618</v>
+      </c>
+      <c r="J15">
+        <v>0.2106542539233618</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.359538</v>
+      </c>
+      <c r="N15">
+        <v>1.078614</v>
+      </c>
+      <c r="O15">
+        <v>0.09604072230482986</v>
+      </c>
+      <c r="P15">
+        <v>0.09953704707701616</v>
+      </c>
+      <c r="Q15">
+        <v>0.5154890456519998</v>
+      </c>
+      <c r="R15">
+        <v>4.639401410868</v>
+      </c>
+      <c r="S15">
+        <v>0.02023138670338471</v>
+      </c>
+      <c r="T15">
+        <v>0.02096790238974338</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>1.433754</v>
+      </c>
+      <c r="H16">
+        <v>4.301261999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.2106542539233618</v>
+      </c>
+      <c r="J16">
+        <v>0.2106542539233618</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.3944915</v>
+      </c>
+      <c r="N16">
+        <v>0.788983</v>
+      </c>
+      <c r="O16">
+        <v>0.1053775918070296</v>
+      </c>
+      <c r="P16">
+        <v>0.07280921443070965</v>
+      </c>
+      <c r="Q16">
+        <v>0.5656037660909999</v>
+      </c>
+      <c r="R16">
+        <v>3.393622596545999</v>
+      </c>
+      <c r="S16">
+        <v>0.02219823798235037</v>
+      </c>
+      <c r="T16">
+        <v>0.01533757074464721</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.915853666666666</v>
+      </c>
+      <c r="H17">
+        <v>5.747560999999999</v>
+      </c>
+      <c r="I17">
+        <v>0.2814867297862839</v>
+      </c>
+      <c r="J17">
+        <v>0.2814867297862839</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.087409</v>
+      </c>
+      <c r="N17">
+        <v>0.262227</v>
+      </c>
+      <c r="O17">
+        <v>0.02334891860093474</v>
+      </c>
+      <c r="P17">
+        <v>0.02419892681150506</v>
+      </c>
+      <c r="Q17">
+        <v>0.1674628531496666</v>
+      </c>
+      <c r="R17">
+        <v>1.507165678347</v>
+      </c>
+      <c r="S17">
+        <v>0.006572410741023257</v>
+      </c>
+      <c r="T17">
+        <v>0.006811676772508186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.915853666666666</v>
+      </c>
+      <c r="H18">
+        <v>5.747560999999999</v>
+      </c>
+      <c r="I18">
+        <v>0.2814867297862839</v>
+      </c>
+      <c r="J18">
+        <v>0.2814867297862839</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.98917</v>
+      </c>
+      <c r="N18">
+        <v>2.96751</v>
+      </c>
+      <c r="O18">
+        <v>0.2642296538398405</v>
+      </c>
+      <c r="P18">
+        <v>0.273848830602529</v>
+      </c>
+      <c r="Q18">
+        <v>1.895104971456666</v>
+      </c>
+      <c r="R18">
+        <v>17.05594474311</v>
+      </c>
+      <c r="S18">
+        <v>0.07437714117193851</v>
+      </c>
+      <c r="T18">
+        <v>0.07708481178210393</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.915853666666666</v>
+      </c>
+      <c r="H19">
+        <v>5.747560999999999</v>
+      </c>
+      <c r="I19">
+        <v>0.2814867297862839</v>
+      </c>
+      <c r="J19">
+        <v>0.2814867297862839</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.912991</v>
+      </c>
+      <c r="N19">
+        <v>5.738973000000001</v>
+      </c>
+      <c r="O19">
+        <v>0.5110031134473653</v>
+      </c>
+      <c r="P19">
+        <v>0.52960598107824</v>
+      </c>
+      <c r="Q19">
+        <v>3.665010821650333</v>
+      </c>
+      <c r="R19">
+        <v>32.985097394853</v>
+      </c>
+      <c r="S19">
+        <v>0.1438405953149083</v>
+      </c>
+      <c r="T19">
+        <v>0.1490770556889703</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.915853666666666</v>
+      </c>
+      <c r="H20">
+        <v>5.747560999999999</v>
+      </c>
+      <c r="I20">
+        <v>0.2814867297862839</v>
+      </c>
+      <c r="J20">
+        <v>0.2814867297862839</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.359538</v>
+      </c>
+      <c r="N20">
+        <v>1.078614</v>
+      </c>
+      <c r="O20">
+        <v>0.09604072230482986</v>
+      </c>
+      <c r="P20">
+        <v>0.09953704707701616</v>
+      </c>
+      <c r="Q20">
+        <v>0.6888221956059998</v>
+      </c>
+      <c r="R20">
+        <v>6.199399760453999</v>
+      </c>
+      <c r="S20">
+        <v>0.02703418884789918</v>
+      </c>
+      <c r="T20">
+        <v>0.02801835787429267</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.915853666666666</v>
+      </c>
+      <c r="H21">
+        <v>5.747560999999999</v>
+      </c>
+      <c r="I21">
+        <v>0.2814867297862839</v>
+      </c>
+      <c r="J21">
+        <v>0.2814867297862839</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.3944915</v>
+      </c>
+      <c r="N21">
+        <v>0.788983</v>
+      </c>
+      <c r="O21">
+        <v>0.1053775918070296</v>
+      </c>
+      <c r="P21">
+        <v>0.07280921443070965</v>
+      </c>
+      <c r="Q21">
+        <v>0.7557879867438332</v>
+      </c>
+      <c r="R21">
+        <v>4.534727920462999</v>
+      </c>
+      <c r="S21">
+        <v>0.02966239371051466</v>
+      </c>
+      <c r="T21">
+        <v>0.02049482766840877</v>
       </c>
     </row>
   </sheetData>
